--- a/analysis_of_algorithms.xlsx
+++ b/analysis_of_algorithms.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murillo/development/project/git/private/estudos/searching-sorting-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9E5D52-5158-064D-ACC4-E0384ABFA1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F99BED-4CC2-7E45-A2E0-59D1F4BE362A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1320" windowWidth="34680" windowHeight="21900" xr2:uid="{947E0903-3BAA-4B47-9B05-889BB2447F05}"/>
+    <workbookView xWindow="340" yWindow="760" windowWidth="37700" windowHeight="22940" activeTab="3" xr2:uid="{947E0903-3BAA-4B47-9B05-889BB2447F05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Linear" sheetId="1" r:id="rId1"/>
+    <sheet name="Search Lowest Value - Linear" sheetId="1" r:id="rId1"/>
+    <sheet name="SelectionSort - Quadratic" sheetId="3" r:id="rId2"/>
+    <sheet name="InsertionSort - Quadratic" sheetId="6" r:id="rId3"/>
+    <sheet name="Linear x Quadratic" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Linear!$A$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Linear!$A$7:$A$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Linear!$B$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Linear!$B$7:$B$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Linear!$C$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Linear!$C$7:$C$20</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Linear!$C$6</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Linear!$C$7:$C$20</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Linear!$A$6</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Linear!$A$7:$A$20</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Linear!$B$6</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Linear!$B$7:$B$20</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Linear x Quadratic'!$A$6</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Linear x Quadratic'!$A$7:$A$20</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Linear x Quadratic'!$B$6</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Linear x Quadratic'!$B$7:$B$20</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Linear x Quadratic'!$C$6</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Linear x Quadratic'!$C$7:$C$20</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Linear x Quadratic'!$D$6</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Linear x Quadratic'!$D$7:$D$20</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Linear x Quadratic'!$E$6</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Linear x Quadratic'!$E$7:$E$20</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Linear x Quadratic'!$A$6</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Linear x Quadratic'!$A$7:$A$20</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Linear x Quadratic'!$B$6</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Linear x Quadratic'!$B$7:$B$20</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Linear x Quadratic'!$C$6</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'Linear x Quadratic'!$C$7:$C$20</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">'Linear x Quadratic'!$D$6</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">'Linear x Quadratic'!$D$7:$D$20</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">'Linear x Quadratic'!$E$6</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">'Linear x Quadratic'!$E$7:$E$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Element Number</t>
   </si>
@@ -63,6 +74,39 @@
   </si>
   <si>
     <t>This algorithm is a linear algorithm, because I will always double, or quadruple and there will always be a linear line.</t>
+  </si>
+  <si>
+    <t>In this algorithm, we execute a 'for' that scans N elements, however, we have a call to another algorithm (search lowest value) where it can also have the same complexity already analyzed. So in this case we have N elements raised to 2 and we can have twice that.</t>
+  </si>
+  <si>
+    <t>This algorithm is a quadratic algorithm, because when the number of elements increases, the operations grow in a quadratic, rather than linear way.</t>
+  </si>
+  <si>
+    <t>The linear algorithm is so low that we cannot see it, because the quadratic algorithm grows absurdly fast.</t>
+  </si>
+  <si>
+    <t>Example with few elements to visualize the lines of the linear algorithm.</t>
+  </si>
+  <si>
+    <t>In algorithm analysis we are always concerned with power, as it will make all the difference in the comparison.</t>
+  </si>
+  <si>
+    <t>2*n^2</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>TIME IN SECONDS (8000 Operations)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N^2</t>
+  </si>
+  <si>
+    <t>In this algorithm, we execute a 'for' that sweeps N elements, where we can make N elements to the left too, however, we have a call to another algorithm (search for the lowest value), where it can also have the same complexity already analyzed. So, in this case, we have N elements increased to 2 and we can have twice that.</t>
   </si>
 </sst>
 </file>
@@ -94,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,8 +163,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,22 +184,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -244,7 +325,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Linear!$B$6</c:f>
+              <c:f>'Search Lowest Value - Linear'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -279,7 +360,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Linear!$A$7:$A$20</c:f>
+              <c:f>'Search Lowest Value - Linear'!$A$7:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -330,7 +411,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Linear!$B$7:$B$20</c:f>
+              <c:f>'Search Lowest Value - Linear'!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -391,7 +472,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Linear!$C$6</c:f>
+              <c:f>'Search Lowest Value - Linear'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -426,7 +507,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Linear!$A$7:$A$20</c:f>
+              <c:f>'Search Lowest Value - Linear'!$A$7:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -477,7 +558,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Linear!$C$7:$C$20</c:f>
+              <c:f>'Search Lowest Value - Linear'!$C$7:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -565,6 +646,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -627,6 +763,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -665,6 +856,3147 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1351367231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SelectionSort - Quadratic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SelectionSort - Quadratic'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SelectionSort - Quadratic'!$A$7:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SelectionSort - Quadratic'!$B$7:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67108864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B00D-754F-A261-AE96BBE17AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SelectionSort - Quadratic'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2*n^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SelectionSort - Quadratic'!$A$7:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SelectionSort - Quadratic'!$C$7:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134217728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B00D-754F-A261-AE96BBE17AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1351367231"/>
+        <c:axId val="1342358879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1351367231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342358879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1342358879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351367231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>InsertionSort - Quadratic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'InsertionSort - Quadratic'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'InsertionSort - Quadratic'!$A$7:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'InsertionSort - Quadratic'!$B$7:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67108864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C269-E644-AA1A-DFA124B39C12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'InsertionSort - Quadratic'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2*n^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'InsertionSort - Quadratic'!$A$7:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'InsertionSort - Quadratic'!$C$7:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134217728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C269-E644-AA1A-DFA124B39C12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1351367231"/>
+        <c:axId val="1342358879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1351367231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342358879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1342358879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351367231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear x Quadratic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Linear x Quadratic'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$A$7:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$B$7:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6D1-B842-A96E-9ACE2213C45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Linear x Quadratic'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$A$7:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$C$7:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E6D1-B842-A96E-9ACE2213C45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Linear x Quadratic'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$A$7:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$D$7:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67108864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E6D1-B842-A96E-9ACE2213C45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Linear x Quadratic'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2*n^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$A$7:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$E$7:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134217728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E6D1-B842-A96E-9ACE2213C45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1731870911"/>
+        <c:axId val="1731308671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1731870911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1731308671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1731308671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1731870911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Linear x Quadratic</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Linear x Quadratic'!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$A$28:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$B$28:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69D6-8A48-A0A0-0B705C4C63C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Linear x Quadratic'!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$A$28:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$C$28:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69D6-8A48-A0A0-0B705C4C63C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Linear x Quadratic'!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$A$28:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$D$28:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-69D6-8A48-A0A0-0B705C4C63C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Linear x Quadratic'!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2*n^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$A$28:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear x Quadratic'!$E$28:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-69D6-8A48-A0A0-0B705C4C63C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1731870911"/>
+        <c:axId val="1731308671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1731870911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1731308671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1731308671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1731870911"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -784,7 +4116,2231 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1305,15 +6861,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>562668</xdr:colOff>
+      <xdr:colOff>342089</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>251470</xdr:rowOff>
+      <xdr:rowOff>244786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>113632</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>721895</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>193842</xdr:rowOff>
+      <xdr:rowOff>187158</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1333,6 +6889,171 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>268563</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>244786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>648369</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>187158</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76ED347C-950D-7540-992E-9025A6099F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>268563</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>244786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>648369</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>187158</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E62BCA-B7CB-C542-AF33-828140F5AE3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>240829</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>458064</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147838</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BA96AE-C6EA-7346-96BF-002446215083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376281</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>593518</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165296</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAD23AE-BFEC-DE4B-A21E-A7F3EFDB2FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1640,8 +7361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F05934-5CBA-3E49-9EC8-5A3A5B0E24C5}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1652,15 +7373,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1675,13 +7396,13 @@
     <row r="4" spans="1:7" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1883,4 +7604,1204 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B93DAC-644C-E247-983E-BA135F125625}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <f>A7*A7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <f>B7*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <f>A7*2</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" ref="B8:B20" si="0">A8*A8</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:C20" si="1">B8*2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <f>A8*2</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <f>A9*2</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <f t="shared" ref="A11:A20" si="2">A10*2</f>
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <f t="shared" si="2"/>
+        <v>2048</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>16777216</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>33554432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <f t="shared" si="2"/>
+        <v>8192</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>67108864</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>134217728</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6849EDD3-74E9-FF46-88EC-C3FB561B1C2B}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <f>A7*A7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <f>B7*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <f>A7*2</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" ref="B8:B20" si="0">A8*A8</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:C20" si="1">B8*2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <f>A8*2</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <f>A9*2</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <f t="shared" ref="A11:A20" si="2">A10*2</f>
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <f t="shared" si="2"/>
+        <v>2048</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>16777216</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>33554432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <f t="shared" si="2"/>
+        <v>8192</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>67108864</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>134217728</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F65158-399C-A343-AD2B-B9814A7285B0}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <f>A7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <f>2*B7</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <f>A7*A7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7*2</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <f>B7/8000</f>
+        <v>1.25E-4</v>
+      </c>
+      <c r="G7" s="7">
+        <f>D7/8000</f>
+        <v>1.25E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <f>A7*2</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <f>A8</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <f>2*B8</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <f>A8*A8</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ref="E8:E20" si="0">D8*2</f>
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ref="F8:F20" si="1">B8/8000</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" ref="G8:G20" si="2">D8/8000</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <f>A8*2</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" ref="B9:B20" si="3">A9</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9:C20" si="4">2*B9</f>
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
+        <f>A9*A9</f>
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <f>A9*2</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
+        <f>A10*A10</f>
+        <v>64</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <f t="shared" ref="A11:A20" si="5">A10*2</f>
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="5">
+        <f>A11*A11</f>
+        <v>256</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="D12" s="5">
+        <f>A12*A12</f>
+        <v>1024</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="D13" s="5">
+        <f>A13*A13</f>
+        <v>4096</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="D14" s="5">
+        <f>A14*A14</f>
+        <v>16384</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="1"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>2.048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="D15" s="5">
+        <f>A15*A15</f>
+        <v>65536</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>8.1920000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="D16" s="5">
+        <f>A16*A16</f>
+        <v>262144</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>32.768000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="4"/>
+        <v>2048</v>
+      </c>
+      <c r="D17" s="5">
+        <f>A17*A17</f>
+        <v>1048576</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.128</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>131.072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <f t="shared" si="5"/>
+        <v>2048</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="4"/>
+        <v>4096</v>
+      </c>
+      <c r="D18" s="5">
+        <f>A18*A18</f>
+        <v>4194304</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>8388608</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>524.28800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <f t="shared" si="5"/>
+        <v>4096</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="3"/>
+        <v>4096</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="4"/>
+        <v>8192</v>
+      </c>
+      <c r="D19" s="5">
+        <f>A19*A19</f>
+        <v>16777216</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>2097.152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <f t="shared" si="5"/>
+        <v>8192</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="3"/>
+        <v>8192</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+      <c r="D20" s="5">
+        <f>A20*A20</f>
+        <v>67108864</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>134217728</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>1.024</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="2"/>
+        <v>8388.6080000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5">
+        <f>A28</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <f>2*B28</f>
+        <v>2</v>
+      </c>
+      <c r="D28" s="5">
+        <f>A28*A28</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <f>D28*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <f>A28*2</f>
+        <v>2</v>
+      </c>
+      <c r="B29" s="5">
+        <f>A29</f>
+        <v>2</v>
+      </c>
+      <c r="C29" s="5">
+        <f>2*B29</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="5">
+        <f>A29*A29</f>
+        <v>4</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" ref="E29:E32" si="6">D29*2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <f>A29*2</f>
+        <v>4</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" ref="B30:B32" si="7">A30</f>
+        <v>4</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" ref="C30:C32" si="8">2*B30</f>
+        <v>8</v>
+      </c>
+      <c r="D30" s="5">
+        <f>A30*A30</f>
+        <v>16</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <f>A30*2</f>
+        <v>8</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="D31" s="5">
+        <f>A31*A31</f>
+        <v>64</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <f t="shared" ref="A32" si="9">A31*2</f>
+        <v>16</v>
+      </c>
+      <c r="B32" s="5">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="D32" s="5">
+        <f>A32*A32</f>
+        <v>256</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="6"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F21:G21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>